--- a/DSA Coding Sheet.xlsx
+++ b/DSA Coding Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Desktop\DS &amp; Algo\Data-Structures_and_Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116183CA-64F8-4514-90A0-08623CB50CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76568A8B-73D9-46B3-ACF8-F45485BE21C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="985">
   <si>
     <t>TOPIC</t>
   </si>
@@ -3224,12 +3224,15 @@
       <t>,i++) -&gt; n%i =0 -&gt; Not a prime</t>
     </r>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring/solutions/26808/here-is-a-10-line-template-that-can-solve-most-substring-problems/comments/25854/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="61">
+  <fonts count="62">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3612,8 +3615,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3635,6 +3645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3748,10 +3764,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3963,8 +3980,10 @@
     <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4183,8 +4202,8 @@
   </sheetPr>
   <dimension ref="A1:F1502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B512" sqref="B512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11812,7 +11831,9 @@
       <c r="F509" s="7"/>
     </row>
     <row r="510" spans="1:6" ht="26.4">
-      <c r="A510" s="7"/>
+      <c r="A510" s="85" t="s">
+        <v>984</v>
+      </c>
       <c r="B510" s="67"/>
       <c r="C510" s="7" t="s">
         <v>941</v>
@@ -19089,8 +19110,9 @@
     <hyperlink ref="C529" r:id="rId1201" xr:uid="{00000000-0004-0000-0000-0000B2040000}"/>
     <hyperlink ref="C530" r:id="rId1202" xr:uid="{00000000-0004-0000-0000-0000B3040000}"/>
     <hyperlink ref="C531" r:id="rId1203" xr:uid="{00000000-0004-0000-0000-0000B4040000}"/>
+    <hyperlink ref="A510" r:id="rId1204" xr:uid="{7BC48C83-7C65-488B-A09D-896E7912BF01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1204"/>
+  <pageSetup orientation="portrait" r:id="rId1205"/>
 </worksheet>
 </file>